--- a/trunk/epbpim_budget/doc/平台开发计划.xlsx
+++ b/trunk/epbpim_budget/doc/平台开发计划.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="49">
   <si>
     <t>所属模块</t>
   </si>
@@ -160,13 +160,19 @@
   </si>
   <si>
     <t>未完成</t>
+  </si>
+  <si>
+    <t>数据未到</t>
+  </si>
+  <si>
+    <t>说明</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,8 +180,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,6 +255,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -272,52 +291,118 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="1" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -326,10 +411,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="B6B8C0"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="0A0A0A"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -606,136 +691,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" customWidth="1"/>
-    <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="30" style="13" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="13" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="13"/>
+    <col min="6" max="6" width="10.7109375" style="13" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:8" ht="30">
+      <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" hidden="1">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="2">
         <v>40794</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="2">
         <v>40794</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="1:8" hidden="1">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="2">
         <v>40795</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="2">
         <v>40795</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" spans="1:8" hidden="1">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="2">
         <v>40796</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="2">
         <v>40796</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="14"/>
+    </row>
+    <row r="5" spans="1:8" hidden="1">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="2">
         <v>40796</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="2">
         <v>40796</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:8" hidden="1">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -745,20 +840,21 @@
       <c r="C6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="2">
         <v>40798</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="2">
         <v>40799</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="1:8" hidden="1">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -768,20 +864,21 @@
       <c r="C7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="2">
         <v>40799</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="2">
         <v>40799</v>
       </c>
-      <c r="G7" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -791,24 +888,25 @@
       <c r="C8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="2">
         <v>40800</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="2">
         <v>40800</v>
       </c>
-      <c r="G8" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -817,17 +915,20 @@
       <c r="D9" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="2">
         <v>40800</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="2">
         <v>40801</v>
       </c>
-      <c r="G9" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" hidden="1">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -837,20 +938,21 @@
       <c r="C10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="2">
         <v>40801</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="2">
         <v>40801</v>
       </c>
-      <c r="G10" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" spans="1:8" hidden="1">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -860,20 +962,21 @@
       <c r="C11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="2">
         <v>40799</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="2">
         <v>40802</v>
       </c>
-      <c r="G11" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -883,20 +986,21 @@
       <c r="C12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="2">
         <v>40799</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="2">
         <v>40802</v>
       </c>
-      <c r="G12" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -906,20 +1010,21 @@
       <c r="C13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="2">
         <v>40799</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="2">
         <v>40802</v>
       </c>
-      <c r="G13" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -929,70 +1034,73 @@
       <c r="C14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="2">
         <v>40799</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="2">
         <v>40802</v>
       </c>
-      <c r="G14" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15" spans="1:8" hidden="1">
       <c r="A15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="2">
         <v>40803</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="2">
         <v>40803</v>
       </c>
-      <c r="G15" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="1:8" hidden="1">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="2">
         <v>40803</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="2">
         <v>40803</v>
       </c>
-      <c r="G16" s="13" t="s">
-        <v>46</v>
-      </c>
+      <c r="G16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="14"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1001,14 +1109,17 @@
       <c r="D17" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="2">
         <v>40801</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="2">
         <v>40803</v>
       </c>
-      <c r="G17" s="13" t="s">
-        <v>46</v>
+      <c r="G17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1021,18 +1132,19 @@
       <c r="C18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="2">
         <v>40803</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="2">
         <v>40804</v>
       </c>
-      <c r="G18" s="13" t="s">
-        <v>46</v>
-      </c>
+      <c r="G18" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="14"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
@@ -1044,18 +1156,19 @@
       <c r="C19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="2">
         <v>40803</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="2">
         <v>40804</v>
       </c>
-      <c r="G19" s="13" t="s">
-        <v>46</v>
-      </c>
+      <c r="G19" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="14"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
@@ -1067,18 +1180,19 @@
       <c r="C20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="2">
         <v>40803</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="2">
         <v>40804</v>
       </c>
-      <c r="G20" s="13" t="s">
-        <v>46</v>
-      </c>
+      <c r="G20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="14"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
@@ -1090,71 +1204,73 @@
       <c r="C21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="2">
         <v>40803</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="2">
         <v>40804</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="8" t="s">
         <v>46</v>
       </c>
       <c r="H21" s="14"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" hidden="1">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="2">
         <v>40804</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="2">
         <v>40804</v>
       </c>
-      <c r="G22" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="G22" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="14"/>
+    </row>
+    <row r="23" spans="1:8" hidden="1">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="2">
         <v>40804</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="2">
         <v>40804</v>
       </c>
-      <c r="G23" s="13" t="s">
-        <v>46</v>
-      </c>
+      <c r="G23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="14"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1163,14 +1279,17 @@
       <c r="D24" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="2">
         <v>40803</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="2">
         <v>40805</v>
       </c>
-      <c r="G24" s="13" t="s">
-        <v>46</v>
+      <c r="G24" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1183,18 +1302,19 @@
       <c r="C25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="2">
         <v>40805</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="2">
         <v>40805</v>
       </c>
-      <c r="G25" s="13" t="s">
-        <v>46</v>
-      </c>
+      <c r="G25" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="14"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
@@ -1206,18 +1326,19 @@
       <c r="C26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="2">
         <v>40805</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="2">
         <v>40806</v>
       </c>
-      <c r="G26" s="13" t="s">
-        <v>46</v>
-      </c>
+      <c r="G26" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" s="14"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
@@ -1229,18 +1350,19 @@
       <c r="C27" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="2">
         <v>40806</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="2">
         <v>40806</v>
       </c>
-      <c r="G27" s="13" t="s">
-        <v>46</v>
-      </c>
+      <c r="G27" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" s="14"/>
     </row>
     <row r="28" spans="1:8" ht="30">
       <c r="A28" s="1" t="s">
@@ -1252,18 +1374,19 @@
       <c r="C28" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="2">
         <v>40807</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="2">
         <v>40807</v>
       </c>
-      <c r="G28" s="13" t="s">
-        <v>46</v>
-      </c>
+      <c r="G28" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" s="14"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
@@ -1278,18 +1401,24 @@
       <c r="D29" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="2">
         <v>40811</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F29" s="2">
         <v>40811</v>
       </c>
-      <c r="G29" s="13" t="s">
-        <v>46</v>
-      </c>
+      <c r="G29" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G29">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="未完成"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A2:G29">
       <sortCondition ref="F1"/>
     </sortState>

--- a/trunk/epbpim_budget/doc/平台开发计划.xlsx
+++ b/trunk/epbpim_budget/doc/平台开发计划.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$33</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="54">
   <si>
     <t>所属模块</t>
   </si>
@@ -39,12 +39,6 @@
     <t>功能点</t>
   </si>
   <si>
-    <t>企业用户登录</t>
-  </si>
-  <si>
-    <t>个人用户登录</t>
-  </si>
-  <si>
     <t>个人用户创建</t>
   </si>
   <si>
@@ -84,9 +78,6 @@
     <t>合作伙伴添加</t>
   </si>
   <si>
-    <t>个人用户权限设计</t>
-  </si>
-  <si>
     <t>退出系统（移植）</t>
   </si>
   <si>
@@ -132,12 +123,6 @@
     <t>前台</t>
   </si>
   <si>
-    <t>企业用户找回密码</t>
-  </si>
-  <si>
-    <t>个人用户找回密码</t>
-  </si>
-  <si>
     <t>后台</t>
   </si>
   <si>
@@ -147,9 +132,6 @@
     <t>张晓辉</t>
   </si>
   <si>
-    <t>用户订阅应用历史记录查询（后台）（移植）</t>
-  </si>
-  <si>
     <t>丁宜人</t>
   </si>
   <si>
@@ -166,6 +148,39 @@
   </si>
   <si>
     <t>说明</t>
+  </si>
+  <si>
+    <t>用户登录（企业，个人）</t>
+  </si>
+  <si>
+    <t>找回密码（企业，个人）</t>
+  </si>
+  <si>
+    <t>用户初次登陆补全信息</t>
+  </si>
+  <si>
+    <t>系统自动发送应用即将到期消息</t>
+  </si>
+  <si>
+    <t>用户订阅应用历史记录查询（后台）</t>
+  </si>
+  <si>
+    <t>企业用户充值</t>
+  </si>
+  <si>
+    <t>企业用户充值查询</t>
+  </si>
+  <si>
+    <t>企业用户批量创建用户（前台）</t>
+  </si>
+  <si>
+    <t>个人用户订阅应用（前台）</t>
+  </si>
+  <si>
+    <t>未确定</t>
+  </si>
+  <si>
+    <t>用户权限实现</t>
   </si>
 </sst>
 </file>
@@ -289,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -329,6 +344,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -691,11 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -716,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -731,21 +748,21 @@
         <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" hidden="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="E2" s="2">
         <v>40794</v>
@@ -754,22 +771,22 @@
         <v>40794</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H2" s="14"/>
     </row>
-    <row r="3" spans="1:8" hidden="1">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="E3" s="2">
         <v>40795</v>
@@ -778,22 +795,22 @@
         <v>40795</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H3" s="14"/>
     </row>
-    <row r="4" spans="1:8" hidden="1">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="E4" s="2">
         <v>40796</v>
@@ -802,22 +819,22 @@
         <v>40796</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H4" s="14"/>
     </row>
-    <row r="5" spans="1:8" hidden="1">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E5" s="2">
         <v>40796</v>
@@ -826,22 +843,22 @@
         <v>40796</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H5" s="14"/>
     </row>
-    <row r="6" spans="1:8" hidden="1">
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2">
         <v>40798</v>
@@ -850,22 +867,22 @@
         <v>40799</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H6" s="14"/>
     </row>
-    <row r="7" spans="1:8" hidden="1">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="E7" s="2">
         <v>40799</v>
@@ -874,252 +891,240 @@
         <v>40799</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H7" s="14"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="E8" s="2">
-        <v>40800</v>
+        <v>40799</v>
       </c>
       <c r="F8" s="2">
-        <v>40800</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>46</v>
+        <v>40802</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>30</v>
+        <v>17</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>43</v>
+        <v>23</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="E9" s="2">
-        <v>40800</v>
+        <v>40801</v>
       </c>
       <c r="F9" s="2">
         <v>40801</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" hidden="1">
+      <c r="G9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>27</v>
+        <v>38</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E10" s="2">
-        <v>40801</v>
+        <v>40803</v>
       </c>
       <c r="F10" s="2">
-        <v>40801</v>
+        <v>40803</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H10" s="14"/>
     </row>
-    <row r="11" spans="1:8" hidden="1">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="2">
+        <v>40803</v>
+      </c>
+      <c r="F11" s="2">
+        <v>40803</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="2">
-        <v>40799</v>
-      </c>
-      <c r="F11" s="2">
-        <v>40802</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>40</v>
+        <v>33</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="E12" s="2">
-        <v>40799</v>
+        <v>40804</v>
       </c>
       <c r="F12" s="2">
-        <v>40802</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>46</v>
+        <v>40807</v>
+      </c>
+      <c r="G12" s="15">
+        <v>0.8</v>
       </c>
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="2">
+        <v>40804</v>
+      </c>
+      <c r="F13" s="2">
+        <v>40804</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="2">
-        <v>40799</v>
-      </c>
-      <c r="F13" s="2">
-        <v>40802</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="2">
+        <v>40804</v>
+      </c>
+      <c r="F14" s="2">
+        <v>40804</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="2">
-        <v>40799</v>
-      </c>
-      <c r="F14" s="2">
-        <v>40802</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="14"/>
-    </row>
-    <row r="15" spans="1:8" hidden="1">
-      <c r="A15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>35</v>
-      </c>
       <c r="C15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="2">
-        <v>40803</v>
-      </c>
-      <c r="F15" s="2">
-        <v>40803</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="14"/>
-    </row>
-    <row r="16" spans="1:8" hidden="1">
-      <c r="A16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="2">
-        <v>40803</v>
-      </c>
-      <c r="F16" s="2">
-        <v>40803</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>45</v>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="H16" s="14"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="2">
-        <v>40801</v>
-      </c>
-      <c r="F17" s="2">
-        <v>40803</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
       <c r="G17" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1127,304 +1132,342 @@
         <v>6</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="2">
-        <v>40803</v>
-      </c>
-      <c r="F18" s="2">
-        <v>40804</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
       <c r="G18" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H18" s="14"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="2">
-        <v>40803</v>
-      </c>
-      <c r="F19" s="2">
-        <v>40804</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
       <c r="G19" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H19" s="14"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="2">
-        <v>40803</v>
-      </c>
-      <c r="F20" s="2">
-        <v>40804</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
       <c r="G20" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H20" s="14"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="2">
-        <v>40803</v>
-      </c>
-      <c r="F21" s="2">
-        <v>40804</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
       <c r="G21" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H21" s="14"/>
     </row>
-    <row r="22" spans="1:8" hidden="1">
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>34</v>
+        <v>45</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>41</v>
+        <v>33</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="E22" s="2">
-        <v>40804</v>
+        <v>40805</v>
       </c>
       <c r="F22" s="2">
-        <v>40804</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>45</v>
+        <v>40805</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="H22" s="14"/>
     </row>
-    <row r="23" spans="1:8" hidden="1">
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>34</v>
+        <v>53</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="2">
-        <v>40804</v>
-      </c>
-      <c r="F23" s="2">
-        <v>40804</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>45</v>
+        <v>33</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="H23" s="14"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>30</v>
+        <v>48</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="2">
-        <v>40803</v>
-      </c>
-      <c r="F24" s="2">
-        <v>40805</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
       <c r="G24" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>47</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="H24" s="14"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="2">
-        <v>40805</v>
-      </c>
-      <c r="F25" s="2">
-        <v>40805</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
       <c r="G25" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H25" s="14"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="2">
-        <v>40805</v>
-      </c>
-      <c r="F26" s="2">
-        <v>40806</v>
-      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
       <c r="G26" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H26" s="14"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" s="14"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="5" t="s">
+      <c r="C28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="2">
-        <v>40806</v>
-      </c>
-      <c r="F27" s="2">
-        <v>40806</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" s="14"/>
-    </row>
-    <row r="28" spans="1:8" ht="30">
-      <c r="A28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="2">
-        <v>40807</v>
-      </c>
-      <c r="F28" s="2">
-        <v>40807</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" s="14"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" s="2">
-        <v>40811</v>
-      </c>
-      <c r="F29" s="2">
-        <v>40811</v>
-      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
       <c r="G29" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H29" s="14"/>
     </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="2">
+        <v>40807</v>
+      </c>
+      <c r="F30" s="2">
+        <v>40807</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" s="14"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="14"/>
+    </row>
+    <row r="32" spans="1:8" ht="30">
+      <c r="A32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H32" s="14"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G29">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="未完成"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A1:G33">
+    <filterColumn colId="6"/>
     <sortState ref="A2:G29">
       <sortCondition ref="F1"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A1:G29">
-    <sortCondition ref="B1"/>
+  <sortState ref="A2:H32">
+    <sortCondition ref="E1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
